--- a/Herramienta/static/files/ExportarActividad.xlsx
+++ b/Herramienta/static/files/ExportarActividad.xlsx
@@ -20,7 +20,7 @@
     <t>Nombre:</t>
   </si>
   <si>
-    <t>2014-10 Prueba</t>
+    <t>2014-10 Prueba 2</t>
   </si>
   <si>
     <t>Semestre:</t>
@@ -89,7 +89,7 @@
     <t>Penalización por entregar tarde el informe</t>
   </si>
   <si>
-    <t>1. Burger Xpress</t>
+    <t>Burger Xpress</t>
   </si>
   <si>
     <t>a. Formulación General</t>
@@ -266,7 +266,7 @@
     <t>Los resultados no se presentan</t>
   </si>
   <si>
-    <t>2. Método Gráfico</t>
+    <t>Método Gráfico</t>
   </si>
   <si>
     <t>a. Formulación Explícita</t>
@@ -677,7 +677,7 @@
     <t>No hace comentarios o los hace de forma incorrecta</t>
   </si>
   <si>
-    <t>4. Selección de Proyectos</t>
+    <t>Selección de Proyectos</t>
   </si>
   <si>
     <t>Se debe invertir solo una vez en cada proyecto</t>
@@ -800,7 +800,7 @@
     <t>d. Implementación en Xpress-MP</t>
   </si>
   <si>
-    <t>5. Bono 1</t>
+    <t>Bono 1</t>
   </si>
   <si>
     <t>Formulación e Implementación</t>
@@ -1395,7 +1395,7 @@
         <v>29</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>34</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>38</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>39</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1599,7 +1599,7 @@
         <v>44</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>44</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>53</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -1851,7 +1851,7 @@
         <v>55</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -1949,7 +1949,7 @@
         <v>49</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>62</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>66</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -2141,7 +2141,7 @@
         <v>72</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -2267,7 +2267,7 @@
         <v>81</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -2361,7 +2361,7 @@
         <v>87</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>39</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>91</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -2481,7 +2481,7 @@
         <v>94</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -2495,7 +2495,7 @@
         <v>95</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -2537,7 +2537,7 @@
         <v>97</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -2579,7 +2579,7 @@
         <v>99</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -2643,7 +2643,7 @@
         <v>103</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -2779,7 +2779,7 @@
         <v>114</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -2821,7 +2821,7 @@
         <v>117</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>122</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -2963,7 +2963,7 @@
         <v>126</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -2977,7 +2977,7 @@
         <v>127</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>129</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>138</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -3177,7 +3177,7 @@
         <v>142</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -3219,7 +3219,7 @@
         <v>145</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -3261,7 +3261,7 @@
         <v>148</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -3311,7 +3311,7 @@
         <v>150</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>151</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -3381,7 +3381,7 @@
         <v>154</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -3439,7 +3439,7 @@
         <v>137</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -3509,7 +3509,7 @@
         <v>158</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -3551,7 +3551,7 @@
         <v>159</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -3593,7 +3593,7 @@
         <v>148</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -3643,7 +3643,7 @@
         <v>160</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -3657,7 +3657,7 @@
         <v>161</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -3729,7 +3729,7 @@
         <v>137</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -3799,7 +3799,7 @@
         <v>158</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -3841,7 +3841,7 @@
         <v>159</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -3883,7 +3883,7 @@
         <v>148</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -3933,7 +3933,7 @@
         <v>160</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -3947,7 +3947,7 @@
         <v>161</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -4019,7 +4019,7 @@
         <v>137</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -4089,7 +4089,7 @@
         <v>158</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -4131,7 +4131,7 @@
         <v>159</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -4173,7 +4173,7 @@
         <v>148</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -4223,7 +4223,7 @@
         <v>160</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -4237,7 +4237,7 @@
         <v>161</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -4387,7 +4387,7 @@
         <v>167</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -4401,7 +4401,7 @@
         <v>168</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -4471,7 +4471,7 @@
         <v>172</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -4731,7 +4731,7 @@
         <v>175</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -4745,7 +4745,7 @@
         <v>187</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -4787,7 +4787,7 @@
         <v>190</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -4801,7 +4801,7 @@
         <v>191</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -4865,7 +4865,7 @@
         <v>194</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -5105,7 +5105,7 @@
         <v>201</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -5283,7 +5283,7 @@
         <v>213</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>216</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -5447,7 +5447,7 @@
         <v>28</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -5461,7 +5461,7 @@
         <v>29</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -5517,7 +5517,7 @@
         <v>33</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -5531,7 +5531,7 @@
         <v>34</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -5573,7 +5573,7 @@
         <v>37</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -5587,7 +5587,7 @@
         <v>38</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -5601,7 +5601,7 @@
         <v>39</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -5651,7 +5651,7 @@
         <v>43</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -5665,7 +5665,7 @@
         <v>44</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -5707,7 +5707,7 @@
         <v>223</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -5721,7 +5721,7 @@
         <v>224</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -5735,7 +5735,7 @@
         <v>225</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         <v>229</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -5819,7 +5819,7 @@
         <v>49</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -5875,7 +5875,7 @@
         <v>232</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -5889,7 +5889,7 @@
         <v>49</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -5945,7 +5945,7 @@
         <v>62</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -6009,7 +6009,7 @@
         <v>233</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -6067,7 +6067,7 @@
         <v>71</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -6179,7 +6179,7 @@
         <v>80</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -6193,7 +6193,7 @@
         <v>234</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -6293,7 +6293,7 @@
         <v>239</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -6343,7 +6343,7 @@
         <v>243</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -6385,7 +6385,7 @@
         <v>246</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -6441,7 +6441,7 @@
         <v>250</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>254</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>258</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -6625,7 +6625,7 @@
         <v>71</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -6737,7 +6737,7 @@
         <v>80</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>

--- a/Herramienta/static/files/ExportarActividad.xlsx
+++ b/Herramienta/static/files/ExportarActividad.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
   <si>
     <t>Nombre:</t>
   </si>
   <si>
-    <t>2014-10 Prueba 2</t>
+    <t>2014-10 Prueba 3</t>
   </si>
   <si>
     <t>Semestre:</t>
@@ -29,16 +29,7 @@
     <t>201920</t>
   </si>
   <si>
-    <t>ID Tarea:</t>
-  </si>
-  <si>
-    <t>Creado:</t>
-  </si>
-  <si>
-    <t>Opti</t>
-  </si>
-  <si>
-    <t>Nota estándar:</t>
+    <t>Porcentaje sobre la nota:</t>
   </si>
   <si>
     <t>Integrantes por grupo:</t>
@@ -1154,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I437"/>
+  <dimension ref="A1:I433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,216 +1177,258 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="n">
-        <v>0.04</v>
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>7</v>
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>8</v>
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
+      <c r="A9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
-        <v>17</v>
+      <c r="G9" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="n">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-20</v>
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1403,13 +1436,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -1417,10 +1450,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1431,10 +1464,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1445,10 +1478,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1459,13 +1492,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -1473,13 +1506,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -1487,55 +1520,49 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="n">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="n">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="n">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1543,13 +1570,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -1557,18 +1584,24 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="n">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1579,10 +1612,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1593,10 +1626,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H38" t="n">
         <v>0.4</v>
@@ -1607,10 +1640,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1621,27 +1654,27 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -1649,13 +1682,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -1663,13 +1696,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -1677,41 +1710,41 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="n">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="n">
-        <v>22</v>
-      </c>
-      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
         <v>48</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -1719,13 +1752,13 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
         <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -1733,13 +1766,13 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -1747,41 +1780,41 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="n">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="n">
-        <v>26</v>
-      </c>
-      <c r="F50" t="s">
-        <v>52</v>
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H51" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -1789,13 +1822,13 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -1803,13 +1836,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -1817,41 +1850,41 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="n">
-        <v>9</v>
-      </c>
-      <c r="E54" t="s">
-        <v>54</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="n">
-        <v>30</v>
-      </c>
-      <c r="F55" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H56" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -1859,13 +1892,13 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -1873,13 +1906,13 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -1887,27 +1920,27 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="n">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s">
-        <v>56</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="F59" t="s">
+        <v>46</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>1.5</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -1915,24 +1948,24 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="n">
-        <v>35</v>
-      </c>
-      <c r="F61" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
@@ -1943,13 +1976,13 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H63" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -1957,10 +1990,10 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -1971,41 +2004,35 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="n">
-        <v>11</v>
-      </c>
-      <c r="E65" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="n">
-        <v>39</v>
-      </c>
-      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
         <v>61</v>
       </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
         <v>62</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -2013,13 +2040,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
         <v>63</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -2027,63 +2054,57 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="n">
-        <v>4</v>
-      </c>
-      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
         <v>64</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="n">
-        <v>12</v>
-      </c>
-      <c r="E70" t="s">
-        <v>64</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
         <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="n">
-        <v>42</v>
-      </c>
-      <c r="F71" t="s">
-        <v>65</v>
-      </c>
-      <c r="H71" t="n">
-        <v>3</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="n">
-        <v>43</v>
-      </c>
-      <c r="F72" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -2091,57 +2112,69 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="n">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+      <c r="F74" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="n">
-        <v>5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>69</v>
+        <v>47</v>
+      </c>
+      <c r="F75" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="n">
-        <v>13</v>
-      </c>
-      <c r="E76" t="s">
-        <v>70</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F76" t="s">
+        <v>71</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>-1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="n">
-        <v>45</v>
-      </c>
-      <c r="F77" t="s">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H78" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -2149,13 +2182,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -2163,13 +2196,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F80" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H80" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -2177,27 +2210,27 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -2205,13 +2238,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -2219,10 +2252,10 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -2233,107 +2266,107 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="n">
-        <v>15</v>
-      </c>
-      <c r="E85" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
         <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="n">
-        <v>52</v>
-      </c>
-      <c r="F86" t="s">
-        <v>80</v>
-      </c>
-      <c r="H86" t="n">
-        <v>3</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="n">
-        <v>53</v>
-      </c>
-      <c r="F87" t="s">
-        <v>81</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="n">
-        <v>54</v>
-      </c>
-      <c r="F88" t="s">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="n">
-        <v>3</v>
-      </c>
-      <c r="B89" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="F89" t="s">
+        <v>82</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="n">
-        <v>4</v>
-      </c>
-      <c r="C90" t="s">
-        <v>84</v>
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="n">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="F91" t="s">
+        <v>84</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="n">
-        <v>16</v>
-      </c>
-      <c r="E92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-3</v>
+        <v>57</v>
+      </c>
+      <c r="F92" t="s">
+        <v>36</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F93" t="s">
         <v>85</v>
       </c>
       <c r="H93" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -2341,41 +2374,35 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="n">
-        <v>17</v>
-      </c>
-      <c r="E94" t="s">
-        <v>86</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.5</v>
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="n">
-        <v>56</v>
-      </c>
-      <c r="F95" t="s">
-        <v>87</v>
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>86</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I95" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -2383,13 +2410,13 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F97" t="s">
         <v>88</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -2397,35 +2424,41 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="n">
-        <v>7</v>
-      </c>
-      <c r="D98" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="F98" t="s">
+        <v>89</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -2433,13 +2466,13 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F101" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -2447,10 +2480,10 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F102" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -2461,7 +2494,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E103" t="s">
         <v>93</v>
@@ -2475,7 +2508,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F104" t="s">
         <v>94</v>
@@ -2489,13 +2522,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F105" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -2503,41 +2536,41 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="n">
-        <v>64</v>
-      </c>
-      <c r="F106" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="E106" t="s">
+        <v>95</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="n">
-        <v>20</v>
-      </c>
-      <c r="E107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107" t="s">
         <v>96</v>
       </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
       <c r="H107" t="n">
         <v>0.5</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F108" t="s">
         <v>97</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -2545,21 +2578,15 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="n">
-        <v>66</v>
-      </c>
-      <c r="F109" t="s">
-        <v>92</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E110" t="s">
         <v>98</v>
@@ -2568,18 +2595,18 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F111" t="s">
         <v>99</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -2587,13 +2614,13 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F112" t="s">
         <v>100</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -2601,63 +2628,57 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="n">
-        <v>8</v>
-      </c>
-      <c r="D113" t="s">
+        <v>71</v>
+      </c>
+      <c r="F113" t="s">
         <v>101</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="n">
-        <v>22</v>
-      </c>
-      <c r="E114" t="s">
-        <v>101</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="n">
-        <v>69</v>
-      </c>
-      <c r="F115" t="s">
-        <v>102</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="n">
-        <v>70</v>
-      </c>
-      <c r="F116" t="s">
-        <v>103</v>
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>104</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F117" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -2665,71 +2686,77 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="n">
-        <v>5</v>
-      </c>
-      <c r="C118" t="s">
-        <v>105</v>
+        <v>73</v>
+      </c>
+      <c r="F118" t="s">
+        <v>106</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="n">
-        <v>9</v>
-      </c>
-      <c r="D119" t="s">
-        <v>106</v>
+        <v>74</v>
+      </c>
+      <c r="F119" t="s">
+        <v>107</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="n">
-        <v>23</v>
-      </c>
-      <c r="E120" t="s">
-        <v>107</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="F120" t="s">
+        <v>108</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="n">
-        <v>72</v>
-      </c>
-      <c r="F121" t="s">
-        <v>108</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="n">
-        <v>73</v>
-      </c>
-      <c r="F122" t="s">
-        <v>109</v>
+        <v>24</v>
+      </c>
+      <c r="E122" t="s">
+        <v>110</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F123" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -2737,10 +2764,10 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F124" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -2751,35 +2778,41 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="n">
-        <v>10</v>
-      </c>
-      <c r="D125" t="s">
-        <v>112</v>
+        <v>25</v>
+      </c>
+      <c r="E125" t="s">
+        <v>113</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="n">
-        <v>24</v>
-      </c>
-      <c r="E126" t="s">
-        <v>113</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="F126" t="s">
+        <v>114</v>
       </c>
       <c r="H126" t="n">
         <v>0.5</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F127" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H127" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -2787,55 +2820,43 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="n">
-        <v>77</v>
-      </c>
-      <c r="F128" t="s">
-        <v>115</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="n">
-        <v>25</v>
-      </c>
-      <c r="E129" t="s">
-        <v>116</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="n">
-        <v>78</v>
-      </c>
-      <c r="F130" t="s">
-        <v>117</v>
+        <v>26</v>
+      </c>
+      <c r="E130" t="s">
+        <v>66</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I130" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F131" t="s">
         <v>118</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -2843,57 +2864,69 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="n">
-        <v>6</v>
-      </c>
-      <c r="C132" t="s">
+        <v>81</v>
+      </c>
+      <c r="F132" t="s">
         <v>119</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="n">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F133" t="s">
         <v>120</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="n">
-        <v>26</v>
-      </c>
-      <c r="E134" t="s">
-        <v>69</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F134" t="s">
+        <v>121</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="n">
-        <v>80</v>
-      </c>
-      <c r="F135" t="s">
-        <v>121</v>
+        <v>27</v>
+      </c>
+      <c r="E135" t="s">
+        <v>76</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F136" t="s">
         <v>122</v>
       </c>
       <c r="H136" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -2901,13 +2934,13 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F137" t="s">
         <v>123</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -2915,13 +2948,13 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F138" t="s">
         <v>124</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -2929,27 +2962,27 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="n">
-        <v>27</v>
-      </c>
-      <c r="E139" t="s">
-        <v>79</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F139" t="s">
+        <v>125</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F140" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -2957,55 +2990,43 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="n">
-        <v>85</v>
-      </c>
-      <c r="F141" t="s">
-        <v>126</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="n">
-        <v>86</v>
-      </c>
-      <c r="F142" t="s">
-        <v>127</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="n">
-        <v>87</v>
-      </c>
-      <c r="F143" t="s">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="E143" t="s">
+        <v>129</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F144" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -3013,57 +3034,57 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="n">
-        <v>7</v>
-      </c>
-      <c r="C145" t="s">
-        <v>130</v>
+        <v>90</v>
+      </c>
+      <c r="F145" t="s">
+        <v>131</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="n">
-        <v>12</v>
-      </c>
-      <c r="D146" t="s">
-        <v>131</v>
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="n">
-        <v>28</v>
-      </c>
-      <c r="E147" t="s">
-        <v>132</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="n">
-        <v>89</v>
-      </c>
-      <c r="F148" t="s">
-        <v>133</v>
+        <v>29</v>
+      </c>
+      <c r="E148" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F149" t="s">
         <v>134</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -3071,54 +3092,66 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="n">
-        <v>8</v>
-      </c>
-      <c r="C150" t="s">
+        <v>92</v>
+      </c>
+      <c r="F150" t="s">
         <v>135</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="n">
-        <v>13</v>
-      </c>
-      <c r="D151" t="s">
+        <v>93</v>
+      </c>
+      <c r="F151" t="s">
         <v>136</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="n">
-        <v>29</v>
-      </c>
-      <c r="E152" t="s">
-        <v>41</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="F152" t="s">
+        <v>137</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="n">
-        <v>91</v>
-      </c>
-      <c r="F153" t="s">
-        <v>137</v>
+        <v>30</v>
+      </c>
+      <c r="E153" t="s">
+        <v>138</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F154" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H154" t="n">
         <v>0.5</v>
@@ -3129,10 +3162,10 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F155" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -3143,41 +3176,41 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="n">
-        <v>94</v>
-      </c>
-      <c r="F156" t="s">
-        <v>140</v>
+        <v>31</v>
+      </c>
+      <c r="E156" t="s">
+        <v>141</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="n">
-        <v>30</v>
-      </c>
-      <c r="E157" t="s">
-        <v>141</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="F157" t="s">
+        <v>142</v>
       </c>
       <c r="H157" t="n">
         <v>0.5</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F158" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H158" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -3185,41 +3218,41 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="n">
-        <v>96</v>
-      </c>
-      <c r="F159" t="s">
-        <v>143</v>
+        <v>32</v>
+      </c>
+      <c r="E159" t="s">
+        <v>144</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="n">
-        <v>31</v>
-      </c>
-      <c r="E160" t="s">
-        <v>144</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="F160" t="s">
+        <v>145</v>
       </c>
       <c r="H160" t="n">
         <v>0.5</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F161" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H161" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -3227,41 +3260,35 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="n">
-        <v>98</v>
-      </c>
-      <c r="F162" t="s">
-        <v>146</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E163" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F164" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H164" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -3269,13 +3296,13 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -3283,49 +3310,55 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="n">
-        <v>14</v>
-      </c>
-      <c r="D166" t="s">
-        <v>79</v>
+        <v>103</v>
+      </c>
+      <c r="F166" t="s">
+        <v>149</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="n">
-        <v>33</v>
-      </c>
-      <c r="E167" t="s">
-        <v>79</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="F167" t="s">
+        <v>150</v>
       </c>
       <c r="H167" t="n">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="n">
-        <v>101</v>
-      </c>
-      <c r="F168" t="s">
-        <v>150</v>
+        <v>34</v>
+      </c>
+      <c r="E168" t="s">
+        <v>110</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F169" t="s">
         <v>151</v>
       </c>
       <c r="H169" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -3333,7 +3366,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F170" t="s">
         <v>152</v>
@@ -3347,55 +3380,43 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="n">
-        <v>104</v>
-      </c>
-      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
         <v>153</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="n">
-        <v>34</v>
-      </c>
-      <c r="E172" t="s">
-        <v>113</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0.1</v>
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="n">
-        <v>105</v>
-      </c>
-      <c r="F173" t="s">
-        <v>154</v>
+        <v>35</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F174" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -3403,57 +3424,69 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="n">
-        <v>9</v>
-      </c>
-      <c r="C175" t="s">
-        <v>156</v>
+        <v>108</v>
+      </c>
+      <c r="F175" t="s">
+        <v>135</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="n">
-        <v>15</v>
-      </c>
-      <c r="D176" t="s">
-        <v>136</v>
+        <v>109</v>
+      </c>
+      <c r="F176" t="s">
+        <v>154</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="n">
-        <v>35</v>
-      </c>
-      <c r="E177" t="s">
-        <v>41</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="F177" t="s">
+        <v>137</v>
       </c>
       <c r="H177" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="n">
-        <v>107</v>
-      </c>
-      <c r="F178" t="s">
-        <v>137</v>
+        <v>36</v>
+      </c>
+      <c r="E178" t="s">
+        <v>138</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F179" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -3461,10 +3494,10 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F180" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -3475,41 +3508,41 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="n">
-        <v>110</v>
-      </c>
-      <c r="F181" t="s">
-        <v>140</v>
+        <v>37</v>
+      </c>
+      <c r="E181" t="s">
+        <v>141</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="n">
-        <v>36</v>
-      </c>
-      <c r="E182" t="s">
-        <v>141</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="F182" t="s">
+        <v>156</v>
       </c>
       <c r="H182" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F183" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="H183" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -3517,41 +3550,41 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="n">
-        <v>112</v>
-      </c>
-      <c r="F184" t="s">
-        <v>143</v>
+        <v>38</v>
+      </c>
+      <c r="E184" t="s">
+        <v>144</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="n">
-        <v>37</v>
-      </c>
-      <c r="E185" t="s">
-        <v>144</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="F185" t="s">
+        <v>145</v>
       </c>
       <c r="H185" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F186" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H186" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -3559,24 +3592,18 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="n">
-        <v>114</v>
-      </c>
-      <c r="F187" t="s">
-        <v>146</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D187" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E188" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -3587,10 +3614,10 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F189" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H189" t="n">
         <v>0.5</v>
@@ -3601,13 +3628,13 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F190" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -3615,77 +3642,71 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="n">
-        <v>16</v>
-      </c>
-      <c r="D191" t="s">
-        <v>79</v>
+        <v>119</v>
+      </c>
+      <c r="F191" t="s">
+        <v>149</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="n">
-        <v>39</v>
-      </c>
-      <c r="E192" t="s">
-        <v>79</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="F192" t="s">
+        <v>150</v>
       </c>
       <c r="H192" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="n">
-        <v>117</v>
-      </c>
-      <c r="F193" t="s">
-        <v>160</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C193" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="n">
-        <v>118</v>
-      </c>
-      <c r="F194" t="s">
-        <v>161</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="n">
-        <v>119</v>
-      </c>
-      <c r="F195" t="s">
-        <v>152</v>
+        <v>40</v>
+      </c>
+      <c r="E195" t="s">
+        <v>38</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F196" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -3693,57 +3714,69 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="n">
-        <v>10</v>
-      </c>
-      <c r="C197" t="s">
-        <v>162</v>
+        <v>122</v>
+      </c>
+      <c r="F197" t="s">
+        <v>135</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="n">
-        <v>17</v>
-      </c>
-      <c r="D198" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="F198" t="s">
+        <v>154</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="n">
-        <v>40</v>
-      </c>
-      <c r="E199" t="s">
-        <v>41</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="F199" t="s">
+        <v>137</v>
       </c>
       <c r="H199" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="n">
-        <v>121</v>
-      </c>
-      <c r="F200" t="s">
-        <v>137</v>
+        <v>41</v>
+      </c>
+      <c r="E200" t="s">
+        <v>138</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F201" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -3751,10 +3784,10 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F202" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -3765,41 +3798,41 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="n">
-        <v>124</v>
-      </c>
-      <c r="F203" t="s">
-        <v>140</v>
+        <v>42</v>
+      </c>
+      <c r="E203" t="s">
+        <v>141</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="n">
-        <v>41</v>
-      </c>
-      <c r="E204" t="s">
-        <v>141</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="F204" t="s">
+        <v>156</v>
       </c>
       <c r="H204" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F205" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="H205" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -3807,41 +3840,41 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="n">
-        <v>126</v>
-      </c>
-      <c r="F206" t="s">
-        <v>143</v>
+        <v>43</v>
+      </c>
+      <c r="E206" t="s">
+        <v>144</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="n">
-        <v>42</v>
-      </c>
-      <c r="E207" t="s">
-        <v>144</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="F207" t="s">
+        <v>145</v>
       </c>
       <c r="H207" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F208" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H208" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -3849,24 +3882,18 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="n">
-        <v>128</v>
-      </c>
-      <c r="F209" t="s">
-        <v>146</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D209" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E210" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -3877,10 +3904,10 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F211" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H211" t="n">
         <v>0.5</v>
@@ -3891,13 +3918,13 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F212" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -3905,77 +3932,71 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="n">
-        <v>18</v>
-      </c>
-      <c r="D213" t="s">
-        <v>79</v>
+        <v>133</v>
+      </c>
+      <c r="F213" t="s">
+        <v>149</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="n">
-        <v>44</v>
-      </c>
-      <c r="E214" t="s">
-        <v>79</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="F214" t="s">
+        <v>150</v>
       </c>
       <c r="H214" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="n">
-        <v>131</v>
-      </c>
-      <c r="F215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" t="s">
         <v>160</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="n">
-        <v>132</v>
-      </c>
-      <c r="F216" t="s">
-        <v>161</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D216" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="n">
-        <v>133</v>
-      </c>
-      <c r="F217" t="s">
-        <v>152</v>
+        <v>45</v>
+      </c>
+      <c r="E217" t="s">
+        <v>38</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="n">
+        <v>135</v>
+      </c>
+      <c r="F218" t="s">
         <v>134</v>
       </c>
-      <c r="F218" t="s">
-        <v>153</v>
-      </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -3983,57 +4004,69 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="n">
-        <v>11</v>
-      </c>
-      <c r="C219" t="s">
-        <v>163</v>
+        <v>136</v>
+      </c>
+      <c r="F219" t="s">
+        <v>135</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="n">
-        <v>19</v>
-      </c>
-      <c r="D220" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="F220" t="s">
+        <v>154</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="n">
-        <v>45</v>
-      </c>
-      <c r="E221" t="s">
-        <v>41</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="F221" t="s">
+        <v>137</v>
       </c>
       <c r="H221" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="n">
-        <v>135</v>
-      </c>
-      <c r="F222" t="s">
-        <v>137</v>
+        <v>46</v>
+      </c>
+      <c r="E222" t="s">
+        <v>138</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F223" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -4041,10 +4074,10 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F224" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -4055,41 +4088,41 @@
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="n">
-        <v>138</v>
-      </c>
-      <c r="F225" t="s">
-        <v>140</v>
+        <v>47</v>
+      </c>
+      <c r="E225" t="s">
+        <v>141</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="n">
-        <v>46</v>
-      </c>
-      <c r="E226" t="s">
         <v>141</v>
       </c>
-      <c r="G226" t="n">
-        <v>0</v>
+      <c r="F226" t="s">
+        <v>156</v>
       </c>
       <c r="H226" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F227" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="H227" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -4097,41 +4130,41 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="n">
-        <v>140</v>
-      </c>
-      <c r="F228" t="s">
-        <v>143</v>
+        <v>48</v>
+      </c>
+      <c r="E228" t="s">
+        <v>144</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="n">
-        <v>47</v>
-      </c>
-      <c r="E229" t="s">
-        <v>144</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="F229" t="s">
+        <v>145</v>
       </c>
       <c r="H229" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F230" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H230" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -4139,24 +4172,18 @@
     </row>
     <row r="231" spans="1:9">
       <c r="A231" t="n">
-        <v>142</v>
-      </c>
-      <c r="F231" t="s">
-        <v>146</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D231" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E232" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -4167,10 +4194,10 @@
     </row>
     <row r="233" spans="1:9">
       <c r="A233" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F233" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H233" t="n">
         <v>0.5</v>
@@ -4181,13 +4208,13 @@
     </row>
     <row r="234" spans="1:9">
       <c r="A234" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F234" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -4195,112 +4222,118 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="n">
-        <v>20</v>
-      </c>
-      <c r="D235" t="s">
-        <v>79</v>
+        <v>147</v>
+      </c>
+      <c r="F235" t="s">
+        <v>149</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="n">
-        <v>49</v>
-      </c>
-      <c r="E236" t="s">
-        <v>79</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="F236" t="s">
+        <v>150</v>
       </c>
       <c r="H236" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" t="n">
-        <v>145</v>
-      </c>
-      <c r="F237" t="s">
-        <v>160</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B237" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" t="n">
-        <v>146</v>
-      </c>
-      <c r="F238" t="s">
-        <v>161</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C238" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" t="n">
-        <v>147</v>
-      </c>
-      <c r="F239" t="s">
-        <v>152</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="D239" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" t="n">
-        <v>148</v>
-      </c>
-      <c r="F240" t="s">
-        <v>153</v>
+        <v>50</v>
+      </c>
+      <c r="E240" t="s">
+        <v>24</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="n">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>164</v>
+        <v>149</v>
+      </c>
+      <c r="F241" t="s">
+        <v>162</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" t="n">
-        <v>12</v>
-      </c>
-      <c r="C242" t="s">
-        <v>25</v>
+        <v>150</v>
+      </c>
+      <c r="F242" t="s">
+        <v>27</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="n">
-        <v>21</v>
-      </c>
-      <c r="D243" t="s">
-        <v>26</v>
+        <v>151</v>
+      </c>
+      <c r="F243" t="s">
+        <v>28</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E244" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -4311,10 +4344,10 @@
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F245" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H245" t="n">
         <v>1</v>
@@ -4325,13 +4358,13 @@
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F246" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -4339,13 +4372,13 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F247" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -4353,41 +4386,41 @@
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="n">
-        <v>51</v>
-      </c>
-      <c r="E248" t="s">
-        <v>32</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="F248" t="s">
+        <v>166</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="n">
-        <v>152</v>
-      </c>
-      <c r="F249" t="s">
-        <v>166</v>
+        <v>52</v>
+      </c>
+      <c r="E249" t="s">
+        <v>83</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F250" t="s">
         <v>167</v>
       </c>
       <c r="H250" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -4395,13 +4428,13 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F251" t="s">
         <v>168</v>
       </c>
       <c r="H251" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -4409,13 +4442,13 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F252" t="s">
         <v>169</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -4423,55 +4456,49 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253" t="n">
-        <v>52</v>
-      </c>
-      <c r="E253" t="s">
-        <v>86</v>
-      </c>
-      <c r="G253" t="n">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="F253" t="s">
+        <v>170</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" t="n">
-        <v>156</v>
-      </c>
-      <c r="F254" t="s">
-        <v>170</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D254" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" t="n">
-        <v>157</v>
-      </c>
-      <c r="F255" t="s">
+        <v>53</v>
+      </c>
+      <c r="E255" t="s">
         <v>171</v>
       </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F256" t="s">
         <v>172</v>
       </c>
       <c r="H256" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -4479,13 +4506,13 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F257" t="s">
         <v>173</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -4493,35 +4520,41 @@
     </row>
     <row r="258" spans="1:9">
       <c r="A258" t="n">
-        <v>22</v>
-      </c>
-      <c r="D258" t="s">
-        <v>41</v>
+        <v>162</v>
+      </c>
+      <c r="F258" t="s">
+        <v>174</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" t="n">
-        <v>53</v>
-      </c>
-      <c r="E259" t="s">
-        <v>174</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="F259" t="s">
+        <v>175</v>
       </c>
       <c r="H259" t="n">
-        <v>4</v>
+        <v>-1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F260" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H260" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -4529,13 +4562,13 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F261" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -4543,27 +4576,27 @@
     </row>
     <row r="262" spans="1:9">
       <c r="A262" t="n">
-        <v>162</v>
-      </c>
-      <c r="F262" t="s">
-        <v>177</v>
+        <v>54</v>
+      </c>
+      <c r="E262" t="s">
+        <v>178</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F263" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H263" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -4571,13 +4604,13 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F264" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H264" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -4585,13 +4618,13 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F265" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H265" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -4599,27 +4632,27 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" t="n">
-        <v>54</v>
-      </c>
-      <c r="E266" t="s">
-        <v>181</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="F266" t="s">
+        <v>179</v>
       </c>
       <c r="H266" t="n">
-        <v>5</v>
+        <v>-1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:9">
       <c r="A267" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F267" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H267" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -4627,13 +4660,13 @@
     </row>
     <row r="268" spans="1:9">
       <c r="A268" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F268" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H268" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -4641,13 +4674,13 @@
     </row>
     <row r="269" spans="1:9">
       <c r="A269" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F269" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -4655,27 +4688,27 @@
     </row>
     <row r="270" spans="1:9">
       <c r="A270" t="n">
-        <v>169</v>
-      </c>
-      <c r="F270" t="s">
-        <v>182</v>
+        <v>55</v>
+      </c>
+      <c r="E270" t="s">
+        <v>183</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F271" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H271" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -4683,13 +4716,13 @@
     </row>
     <row r="272" spans="1:9">
       <c r="A272" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F272" t="s">
         <v>184</v>
       </c>
       <c r="H272" t="n">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -4697,13 +4730,13 @@
     </row>
     <row r="273" spans="1:9">
       <c r="A273" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F273" t="s">
         <v>185</v>
       </c>
       <c r="H273" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -4711,7 +4744,7 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E274" t="s">
         <v>186</v>
@@ -4725,10 +4758,10 @@
     </row>
     <row r="275" spans="1:9">
       <c r="A275" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F275" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H275" t="n">
         <v>0.5</v>
@@ -4739,10 +4772,10 @@
     </row>
     <row r="276" spans="1:9">
       <c r="A276" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F276" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H276" t="n">
         <v>0.3</v>
@@ -4753,10 +4786,10 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F277" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -4767,41 +4800,35 @@
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="n">
-        <v>56</v>
-      </c>
-      <c r="E278" t="s">
-        <v>189</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0.5</v>
+        <v>23</v>
+      </c>
+      <c r="D278" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" t="n">
-        <v>176</v>
-      </c>
-      <c r="F279" t="s">
-        <v>190</v>
+        <v>57</v>
+      </c>
+      <c r="E279" t="s">
+        <v>98</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I279" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F280" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H280" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -4809,13 +4836,13 @@
     </row>
     <row r="281" spans="1:9">
       <c r="A281" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F281" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -4823,63 +4850,57 @@
     </row>
     <row r="282" spans="1:9">
       <c r="A282" t="n">
-        <v>23</v>
-      </c>
-      <c r="D282" t="s">
-        <v>101</v>
+        <v>181</v>
+      </c>
+      <c r="F282" t="s">
+        <v>64</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" t="n">
-        <v>57</v>
-      </c>
-      <c r="E283" t="s">
-        <v>101</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C283" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" t="n">
-        <v>179</v>
-      </c>
-      <c r="F284" t="s">
-        <v>193</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="D284" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" t="n">
-        <v>180</v>
-      </c>
-      <c r="F285" t="s">
-        <v>194</v>
+        <v>58</v>
+      </c>
+      <c r="E285" t="s">
+        <v>67</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I285" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F286" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -4887,26 +4908,38 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" t="n">
-        <v>13</v>
-      </c>
-      <c r="C287" t="s">
-        <v>195</v>
+        <v>183</v>
+      </c>
+      <c r="F287" t="s">
+        <v>193</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" t="n">
-        <v>24</v>
-      </c>
-      <c r="D288" t="s">
-        <v>69</v>
+        <v>184</v>
+      </c>
+      <c r="F288" t="s">
+        <v>70</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E289" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
@@ -4917,10 +4950,10 @@
     </row>
     <row r="290" spans="1:9">
       <c r="A290" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F290" t="s">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="H290" t="n">
         <v>3</v>
@@ -4931,13 +4964,13 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F291" t="s">
         <v>196</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -4945,10 +4978,10 @@
     </row>
     <row r="292" spans="1:9">
       <c r="A292" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F292" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -4959,27 +4992,27 @@
     </row>
     <row r="293" spans="1:9">
       <c r="A293" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E293" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F294" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -4987,13 +5020,13 @@
     </row>
     <row r="295" spans="1:9">
       <c r="A295" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F295" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -5001,10 +5034,10 @@
     </row>
     <row r="296" spans="1:9">
       <c r="A296" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F296" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -5015,10 +5048,10 @@
     </row>
     <row r="297" spans="1:9">
       <c r="A297" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E297" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G297" t="n">
         <v>0</v>
@@ -5029,10 +5062,10 @@
     </row>
     <row r="298" spans="1:9">
       <c r="A298" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F298" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H298" t="n">
         <v>1</v>
@@ -5043,13 +5076,13 @@
     </row>
     <row r="299" spans="1:9">
       <c r="A299" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F299" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -5057,10 +5090,10 @@
     </row>
     <row r="300" spans="1:9">
       <c r="A300" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F300" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -5071,27 +5104,27 @@
     </row>
     <row r="301" spans="1:9">
       <c r="A301" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E301" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="G301" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F302" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -5099,13 +5132,13 @@
     </row>
     <row r="303" spans="1:9">
       <c r="A303" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F303" t="s">
         <v>201</v>
       </c>
       <c r="H303" t="n">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -5113,55 +5146,43 @@
     </row>
     <row r="304" spans="1:9">
       <c r="A304" t="n">
-        <v>193</v>
-      </c>
-      <c r="F304" t="s">
+        <v>14</v>
+      </c>
+      <c r="C304" t="s">
         <v>202</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" t="n">
-        <v>62</v>
-      </c>
-      <c r="E305" t="s">
-        <v>19</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="D305" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="306" spans="1:9">
       <c r="A306" t="n">
-        <v>194</v>
-      </c>
-      <c r="F306" t="s">
-        <v>203</v>
+        <v>63</v>
+      </c>
+      <c r="E306" t="s">
+        <v>204</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:9">
       <c r="A307" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F307" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H307" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -5169,51 +5190,57 @@
     </row>
     <row r="308" spans="1:9">
       <c r="A308" t="n">
-        <v>14</v>
-      </c>
-      <c r="C308" t="s">
-        <v>205</v>
+        <v>197</v>
+      </c>
+      <c r="F308" t="s">
+        <v>206</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" t="n">
-        <v>25</v>
-      </c>
-      <c r="D309" t="s">
-        <v>206</v>
+        <v>198</v>
+      </c>
+      <c r="F309" t="s">
+        <v>207</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" t="n">
-        <v>63</v>
-      </c>
-      <c r="E310" t="s">
-        <v>207</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0</v>
-      </c>
-      <c r="H310" t="n">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="D310" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" t="n">
-        <v>196</v>
-      </c>
-      <c r="F311" t="s">
+        <v>64</v>
+      </c>
+      <c r="E311" t="s">
         <v>208</v>
       </c>
+      <c r="G311" t="n">
+        <v>0</v>
+      </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F312" t="s">
         <v>209</v>
@@ -5227,13 +5254,13 @@
     </row>
     <row r="313" spans="1:9">
       <c r="A313" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F313" t="s">
         <v>210</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -5241,18 +5268,24 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314" t="n">
-        <v>26</v>
-      </c>
-      <c r="D314" t="s">
-        <v>69</v>
+        <v>201</v>
+      </c>
+      <c r="F314" t="s">
+        <v>211</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E315" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="G315" t="n">
         <v>0</v>
@@ -5263,7 +5296,7 @@
     </row>
     <row r="316" spans="1:9">
       <c r="A316" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F316" t="s">
         <v>212</v>
@@ -5277,7 +5310,7 @@
     </row>
     <row r="317" spans="1:9">
       <c r="A317" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F317" t="s">
         <v>213</v>
@@ -5291,7 +5324,7 @@
     </row>
     <row r="318" spans="1:9">
       <c r="A318" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F318" t="s">
         <v>214</v>
@@ -5305,27 +5338,27 @@
     </row>
     <row r="319" spans="1:9">
       <c r="A319" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E319" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="G319" t="n">
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:9">
       <c r="A320" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F320" t="s">
         <v>215</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -5333,13 +5366,13 @@
     </row>
     <row r="321" spans="1:9">
       <c r="A321" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F321" t="s">
         <v>216</v>
       </c>
       <c r="H321" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -5347,121 +5380,121 @@
     </row>
     <row r="322" spans="1:9">
       <c r="A322" t="n">
-        <v>204</v>
-      </c>
-      <c r="F322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" t="s">
         <v>217</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" t="n">
-        <v>66</v>
-      </c>
-      <c r="E323" t="s">
-        <v>113</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0</v>
-      </c>
-      <c r="H323" t="n">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="C323" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="324" spans="1:9">
       <c r="A324" t="n">
-        <v>205</v>
-      </c>
-      <c r="F324" t="s">
-        <v>218</v>
-      </c>
-      <c r="H324" t="n">
-        <v>3</v>
-      </c>
-      <c r="I324" t="n">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D324" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="325" spans="1:9">
       <c r="A325" t="n">
-        <v>206</v>
-      </c>
-      <c r="F325" t="s">
-        <v>219</v>
+        <v>67</v>
+      </c>
+      <c r="E325" t="s">
+        <v>24</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="326" spans="1:9">
       <c r="A326" t="n">
-        <v>5</v>
-      </c>
-      <c r="B326" t="s">
-        <v>220</v>
+        <v>207</v>
+      </c>
+      <c r="F326" t="s">
+        <v>25</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I326" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:9">
       <c r="A327" t="n">
-        <v>15</v>
-      </c>
-      <c r="C327" t="s">
-        <v>25</v>
+        <v>208</v>
+      </c>
+      <c r="F327" t="s">
+        <v>26</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:9">
       <c r="A328" t="n">
+        <v>209</v>
+      </c>
+      <c r="F328" t="s">
         <v>27</v>
       </c>
-      <c r="D328" t="s">
-        <v>26</v>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:9">
       <c r="A329" t="n">
-        <v>67</v>
-      </c>
-      <c r="E329" t="s">
-        <v>27</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="F329" t="s">
+        <v>28</v>
       </c>
       <c r="H329" t="n">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="I329" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:9">
       <c r="A330" t="n">
-        <v>207</v>
-      </c>
-      <c r="F330" t="s">
-        <v>28</v>
+        <v>68</v>
+      </c>
+      <c r="E330" t="s">
+        <v>29</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0</v>
       </c>
       <c r="H330" t="n">
         <v>0.3</v>
       </c>
-      <c r="I330" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="331" spans="1:9">
       <c r="A331" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F331" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H331" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -5469,13 +5502,13 @@
     </row>
     <row r="332" spans="1:9">
       <c r="A332" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F332" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -5483,10 +5516,10 @@
     </row>
     <row r="333" spans="1:9">
       <c r="A333" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F333" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -5497,27 +5530,27 @@
     </row>
     <row r="334" spans="1:9">
       <c r="A334" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E334" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G334" t="n">
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F335" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H335" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -5525,13 +5558,13 @@
     </row>
     <row r="336" spans="1:9">
       <c r="A336" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F336" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H336" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -5539,13 +5572,13 @@
     </row>
     <row r="337" spans="1:9">
       <c r="A337" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F337" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -5553,55 +5586,49 @@
     </row>
     <row r="338" spans="1:9">
       <c r="A338" t="n">
-        <v>69</v>
-      </c>
-      <c r="E338" t="s">
-        <v>36</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="F338" t="s">
+        <v>37</v>
       </c>
       <c r="H338" t="n">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="I338" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:9">
       <c r="A339" t="n">
-        <v>214</v>
-      </c>
-      <c r="F339" t="s">
-        <v>37</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I339" t="n">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="D339" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="340" spans="1:9">
       <c r="A340" t="n">
-        <v>215</v>
-      </c>
-      <c r="F340" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="E340" t="s">
+        <v>218</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F341" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H341" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -5609,13 +5636,13 @@
     </row>
     <row r="342" spans="1:9">
       <c r="A342" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F342" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -5623,18 +5650,24 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343" t="n">
-        <v>28</v>
-      </c>
-      <c r="D343" t="s">
-        <v>41</v>
+        <v>220</v>
+      </c>
+      <c r="F343" t="s">
+        <v>42</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:9">
       <c r="A344" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E344" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G344" t="n">
         <v>0</v>
@@ -5645,10 +5678,10 @@
     </row>
     <row r="345" spans="1:9">
       <c r="A345" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F345" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="H345" t="n">
         <v>0.5</v>
@@ -5659,13 +5692,13 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F346" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="H346" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -5673,13 +5706,13 @@
     </row>
     <row r="347" spans="1:9">
       <c r="A347" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F347" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -5687,41 +5720,41 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348" t="n">
-        <v>71</v>
-      </c>
-      <c r="E348" t="s">
-        <v>222</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="F348" t="s">
+        <v>42</v>
       </c>
       <c r="H348" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="I348" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:9">
       <c r="A349" t="n">
-        <v>221</v>
-      </c>
-      <c r="F349" t="s">
+        <v>72</v>
+      </c>
+      <c r="E349" t="s">
         <v>223</v>
       </c>
+      <c r="G349" t="n">
+        <v>0</v>
+      </c>
       <c r="H349" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I349" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:9">
       <c r="A350" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F350" t="s">
         <v>224</v>
       </c>
       <c r="H350" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -5729,13 +5762,13 @@
     </row>
     <row r="351" spans="1:9">
       <c r="A351" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F351" t="s">
         <v>225</v>
       </c>
       <c r="H351" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -5743,13 +5776,13 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F352" t="s">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -5757,27 +5790,27 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" t="n">
-        <v>72</v>
-      </c>
-      <c r="E353" t="s">
-        <v>226</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="F353" t="s">
+        <v>46</v>
       </c>
       <c r="H353" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I353" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:9">
       <c r="A354" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F354" t="s">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -5785,27 +5818,27 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" t="n">
-        <v>226</v>
-      </c>
-      <c r="F355" t="s">
-        <v>228</v>
+        <v>73</v>
+      </c>
+      <c r="E355" t="s">
+        <v>227</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F356" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H356" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -5813,10 +5846,10 @@
     </row>
     <row r="357" spans="1:9">
       <c r="A357" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F357" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="H357" t="n">
         <v>0.5</v>
@@ -5827,13 +5860,13 @@
     </row>
     <row r="358" spans="1:9">
       <c r="A358" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F358" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -5841,41 +5874,41 @@
     </row>
     <row r="359" spans="1:9">
       <c r="A359" t="n">
-        <v>73</v>
-      </c>
-      <c r="E359" t="s">
-        <v>230</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="F359" t="s">
+        <v>42</v>
       </c>
       <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:9">
       <c r="A360" t="n">
-        <v>230</v>
-      </c>
-      <c r="F360" t="s">
-        <v>231</v>
+        <v>74</v>
+      </c>
+      <c r="E360" t="s">
+        <v>57</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:9">
       <c r="A361" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F361" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="H361" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -5883,10 +5916,10 @@
     </row>
     <row r="362" spans="1:9">
       <c r="A362" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F362" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H362" t="n">
         <v>0.5</v>
@@ -5897,10 +5930,10 @@
     </row>
     <row r="363" spans="1:9">
       <c r="A363" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F363" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -5911,41 +5944,35 @@
     </row>
     <row r="364" spans="1:9">
       <c r="A364" t="n">
-        <v>74</v>
-      </c>
-      <c r="E364" t="s">
-        <v>60</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D364" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="365" spans="1:9">
       <c r="A365" t="n">
-        <v>234</v>
-      </c>
-      <c r="F365" t="s">
+        <v>75</v>
+      </c>
+      <c r="E365" t="s">
         <v>61</v>
       </c>
+      <c r="G365" t="n">
+        <v>0</v>
+      </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:9">
       <c r="A366" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F366" t="s">
         <v>62</v>
       </c>
       <c r="H366" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -5953,13 +5980,13 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F367" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -5967,63 +5994,57 @@
     </row>
     <row r="368" spans="1:9">
       <c r="A368" t="n">
-        <v>29</v>
-      </c>
-      <c r="D368" t="s">
+        <v>239</v>
+      </c>
+      <c r="F368" t="s">
         <v>64</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:9">
       <c r="A369" t="n">
-        <v>75</v>
-      </c>
-      <c r="E369" t="s">
-        <v>64</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0</v>
-      </c>
-      <c r="H369" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C369" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="370" spans="1:9">
       <c r="A370" t="n">
-        <v>237</v>
-      </c>
-      <c r="F370" t="s">
-        <v>65</v>
-      </c>
-      <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D370" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="371" spans="1:9">
       <c r="A371" t="n">
-        <v>238</v>
-      </c>
-      <c r="F371" t="s">
-        <v>233</v>
+        <v>76</v>
+      </c>
+      <c r="E371" t="s">
+        <v>67</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I371" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F372" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -6031,43 +6052,55 @@
     </row>
     <row r="373" spans="1:9">
       <c r="A373" t="n">
-        <v>16</v>
-      </c>
-      <c r="C373" t="s">
-        <v>68</v>
+        <v>241</v>
+      </c>
+      <c r="F373" t="s">
+        <v>70</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:9">
       <c r="A374" t="n">
-        <v>30</v>
-      </c>
-      <c r="D374" t="s">
-        <v>69</v>
+        <v>242</v>
+      </c>
+      <c r="F374" t="s">
+        <v>201</v>
+      </c>
+      <c r="H374" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:9">
       <c r="A375" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E375" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F376" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H376" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -6075,13 +6108,13 @@
     </row>
     <row r="377" spans="1:9">
       <c r="A377" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F377" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -6089,13 +6122,13 @@
     </row>
     <row r="378" spans="1:9">
       <c r="A378" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F378" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="H378" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -6103,27 +6136,27 @@
     </row>
     <row r="379" spans="1:9">
       <c r="A379" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E379" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G379" t="n">
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F380" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -6131,13 +6164,13 @@
     </row>
     <row r="381" spans="1:9">
       <c r="A381" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F381" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I381" t="n">
         <v>1</v>
@@ -6145,10 +6178,10 @@
     </row>
     <row r="382" spans="1:9">
       <c r="A382" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F382" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -6159,55 +6192,43 @@
     </row>
     <row r="383" spans="1:9">
       <c r="A383" t="n">
-        <v>78</v>
-      </c>
-      <c r="E383" t="s">
-        <v>79</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0</v>
-      </c>
-      <c r="H383" t="n">
-        <v>1.5</v>
+        <v>17</v>
+      </c>
+      <c r="C383" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="384" spans="1:9">
       <c r="A384" t="n">
-        <v>246</v>
-      </c>
-      <c r="F384" t="s">
-        <v>80</v>
-      </c>
-      <c r="H384" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I384" t="n">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D384" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="385" spans="1:9">
       <c r="A385" t="n">
-        <v>247</v>
-      </c>
-      <c r="F385" t="s">
-        <v>234</v>
+        <v>79</v>
+      </c>
+      <c r="E385" t="s">
+        <v>16</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-1</v>
       </c>
       <c r="H385" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:9">
       <c r="A386" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F386" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -6215,43 +6236,55 @@
     </row>
     <row r="387" spans="1:9">
       <c r="A387" t="n">
-        <v>17</v>
-      </c>
-      <c r="C387" t="s">
-        <v>235</v>
+        <v>80</v>
+      </c>
+      <c r="E387" t="s">
+        <v>234</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0</v>
+      </c>
+      <c r="H387" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:9">
       <c r="A388" t="n">
-        <v>31</v>
-      </c>
-      <c r="D388" t="s">
-        <v>26</v>
+        <v>250</v>
+      </c>
+      <c r="F388" t="s">
+        <v>235</v>
+      </c>
+      <c r="H388" t="n">
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:9">
       <c r="A389" t="n">
-        <v>79</v>
-      </c>
-      <c r="E389" t="s">
-        <v>19</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-1</v>
+        <v>251</v>
+      </c>
+      <c r="F389" t="s">
+        <v>236</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="I389" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:9">
       <c r="A390" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F390" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H390" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -6259,38 +6292,32 @@
     </row>
     <row r="391" spans="1:9">
       <c r="A391" t="n">
-        <v>80</v>
-      </c>
-      <c r="E391" t="s">
-        <v>237</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0</v>
-      </c>
-      <c r="H391" t="n">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="D391" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="A392" t="n">
-        <v>250</v>
-      </c>
-      <c r="F392" t="s">
-        <v>238</v>
+        <v>81</v>
+      </c>
+      <c r="E392" t="s">
+        <v>239</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="393" spans="1:9">
       <c r="A393" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F393" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H393" t="n">
         <v>0.5</v>
@@ -6301,10 +6328,10 @@
     </row>
     <row r="394" spans="1:9">
       <c r="A394" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F394" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -6315,35 +6342,41 @@
     </row>
     <row r="395" spans="1:9">
       <c r="A395" t="n">
-        <v>32</v>
-      </c>
-      <c r="D395" t="s">
-        <v>241</v>
+        <v>82</v>
+      </c>
+      <c r="E395" t="s">
+        <v>242</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="396" spans="1:9">
       <c r="A396" t="n">
-        <v>81</v>
-      </c>
-      <c r="E396" t="s">
-        <v>242</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="F396" t="s">
+        <v>243</v>
       </c>
       <c r="H396" t="n">
         <v>0.5</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:9">
       <c r="A397" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F397" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H397" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -6351,38 +6384,38 @@
     </row>
     <row r="398" spans="1:9">
       <c r="A398" t="n">
-        <v>254</v>
-      </c>
-      <c r="F398" t="s">
-        <v>244</v>
+        <v>83</v>
+      </c>
+      <c r="E398" t="s">
+        <v>245</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:9">
       <c r="A399" t="n">
-        <v>82</v>
-      </c>
-      <c r="E399" t="s">
-        <v>245</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0</v>
+        <v>257</v>
+      </c>
+      <c r="F399" t="s">
+        <v>246</v>
       </c>
       <c r="H399" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:9">
       <c r="A400" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F400" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H400" t="n">
         <v>0.5</v>
@@ -6393,10 +6426,10 @@
     </row>
     <row r="401" spans="1:9">
       <c r="A401" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F401" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -6407,10 +6440,10 @@
     </row>
     <row r="402" spans="1:9">
       <c r="A402" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E402" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -6421,10 +6454,10 @@
     </row>
     <row r="403" spans="1:9">
       <c r="A403" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F403" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H403" t="n">
         <v>1</v>
@@ -6435,10 +6468,10 @@
     </row>
     <row r="404" spans="1:9">
       <c r="A404" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F404" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H404" t="n">
         <v>0.5</v>
@@ -6449,10 +6482,10 @@
     </row>
     <row r="405" spans="1:9">
       <c r="A405" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F405" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -6463,7 +6496,7 @@
     </row>
     <row r="406" spans="1:9">
       <c r="A406" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E406" t="s">
         <v>252</v>
@@ -6472,18 +6505,18 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:9">
       <c r="A407" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F407" t="s">
         <v>253</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -6491,13 +6524,13 @@
     </row>
     <row r="408" spans="1:9">
       <c r="A408" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F408" t="s">
         <v>254</v>
       </c>
       <c r="H408" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -6505,13 +6538,13 @@
     </row>
     <row r="409" spans="1:9">
       <c r="A409" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F409" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -6519,69 +6552,57 @@
     </row>
     <row r="410" spans="1:9">
       <c r="A410" t="n">
-        <v>85</v>
-      </c>
-      <c r="E410" t="s">
-        <v>255</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0</v>
+        <v>266</v>
+      </c>
+      <c r="F410" t="s">
+        <v>256</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:9">
       <c r="A411" t="n">
-        <v>263</v>
-      </c>
-      <c r="F411" t="s">
-        <v>256</v>
-      </c>
-      <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C411" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="412" spans="1:9">
       <c r="A412" t="n">
-        <v>264</v>
-      </c>
-      <c r="F412" t="s">
-        <v>257</v>
-      </c>
-      <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D412" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="413" spans="1:9">
       <c r="A413" t="n">
-        <v>265</v>
-      </c>
-      <c r="F413" t="s">
-        <v>258</v>
+        <v>86</v>
+      </c>
+      <c r="E413" t="s">
+        <v>67</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I413" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="414" spans="1:9">
       <c r="A414" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F414" t="s">
-        <v>259</v>
+        <v>68</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -6589,43 +6610,55 @@
     </row>
     <row r="415" spans="1:9">
       <c r="A415" t="n">
-        <v>18</v>
-      </c>
-      <c r="C415" t="s">
-        <v>260</v>
+        <v>268</v>
+      </c>
+      <c r="F415" t="s">
+        <v>70</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:9">
       <c r="A416" t="n">
-        <v>33</v>
-      </c>
-      <c r="D416" t="s">
-        <v>69</v>
+        <v>269</v>
+      </c>
+      <c r="F416" t="s">
+        <v>71</v>
+      </c>
+      <c r="H416" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:9">
       <c r="A417" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E417" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G417" t="n">
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:9">
       <c r="A418" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F418" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H418" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -6633,10 +6666,10 @@
     </row>
     <row r="419" spans="1:9">
       <c r="A419" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F419" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -6647,13 +6680,13 @@
     </row>
     <row r="420" spans="1:9">
       <c r="A420" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F420" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H420" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -6661,27 +6694,27 @@
     </row>
     <row r="421" spans="1:9">
       <c r="A421" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E421" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G421" t="n">
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="422" spans="1:9">
       <c r="A422" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F422" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -6689,13 +6722,13 @@
     </row>
     <row r="423" spans="1:9">
       <c r="A423" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F423" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -6703,10 +6736,10 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F424" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H424" t="n">
         <v>0</v>
@@ -6717,165 +6750,109 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" t="n">
-        <v>88</v>
-      </c>
-      <c r="E425" t="s">
-        <v>79</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0</v>
-      </c>
-      <c r="H425" t="n">
-        <v>1.5</v>
+        <v>6</v>
+      </c>
+      <c r="B425" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="426" spans="1:9">
       <c r="A426" t="n">
-        <v>273</v>
-      </c>
-      <c r="F426" t="s">
-        <v>80</v>
-      </c>
-      <c r="H426" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I426" t="n">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C426" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="427" spans="1:9">
       <c r="A427" t="n">
-        <v>274</v>
-      </c>
-      <c r="F427" t="s">
-        <v>234</v>
-      </c>
-      <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="D427" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="428" spans="1:9">
       <c r="A428" t="n">
-        <v>275</v>
-      </c>
-      <c r="F428" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E428" t="s">
+        <v>259</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:9">
       <c r="A429" t="n">
-        <v>6</v>
-      </c>
-      <c r="B429" t="s">
-        <v>261</v>
+        <v>276</v>
+      </c>
+      <c r="F429" t="s">
+        <v>260</v>
+      </c>
+      <c r="H429" t="n">
+        <v>5</v>
+      </c>
+      <c r="I429" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:9">
       <c r="A430" t="n">
-        <v>19</v>
-      </c>
-      <c r="C430" t="s">
-        <v>262</v>
+        <v>277</v>
+      </c>
+      <c r="F430" t="s">
+        <v>261</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:9">
       <c r="A431" t="n">
-        <v>34</v>
-      </c>
-      <c r="D431" t="s">
+        <v>278</v>
+      </c>
+      <c r="F431" t="s">
         <v>262</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:9">
       <c r="A432" t="n">
-        <v>89</v>
-      </c>
-      <c r="E432" t="s">
-        <v>262</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="F432" t="s">
+        <v>263</v>
       </c>
       <c r="H432" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I432" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:9">
       <c r="A433" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F433" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H433" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9">
-      <c r="A434" t="n">
-        <v>277</v>
-      </c>
-      <c r="F434" t="s">
-        <v>264</v>
-      </c>
-      <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9">
-      <c r="A435" t="n">
-        <v>278</v>
-      </c>
-      <c r="F435" t="s">
-        <v>265</v>
-      </c>
-      <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9">
-      <c r="A436" t="n">
-        <v>279</v>
-      </c>
-      <c r="F436" t="s">
-        <v>266</v>
-      </c>
-      <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9">
-      <c r="A437" t="n">
-        <v>280</v>
-      </c>
-      <c r="F437" t="s">
-        <v>267</v>
-      </c>
-      <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="n">
         <v>1</v>
       </c>
     </row>
